--- a/amc_resources/ab_molecules.xlsx
+++ b/amc_resources/ab_molecules.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S399"/>
+  <dimension ref="A1:S400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10315,6 +10315,28 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>voriconazole</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
